--- a/income.xlsx
+++ b/income.xlsx
@@ -28,7 +28,7 @@
     <t>doações e vendas</t>
   </si>
   <si>
-    <t>projeto Auto Pista Litoral Sul</t>
+    <t>projeto Autopista Litoral Sul</t>
   </si>
   <si>
     <t>empréstimos e aplicações</t>
